--- a/DateBase/orders/Fresh bloom Flowers_2025-11-1.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-1.xlsx
@@ -775,6 +775,9 @@
       <c r="A41" t="str">
         <v>7</v>
       </c>
+      <c r="C41" t="str">
+        <v>721_银扇干花_undefined_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-1.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-1.xlsx
@@ -778,6 +778,9 @@
       <c r="C41" t="str">
         <v>721_银扇干花_undefined_undefined_1bunch</v>
       </c>
+      <c r="F41" t="str">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -839,7 +842,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151540401033532151014713101491410105510115111082615151515151041590</v>
+        <v>01515404010335321510147131014914101055101151110826151515151510415950</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-1.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-1.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -782,9 +782,178 @@
         <v>50</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>8</v>
+      </c>
+      <c r="C42" t="str">
+        <v>589_洋牡丹香槟_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>587_洋牡丹橙_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>588_洋牡丹黄_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>591_洋牡丹黑_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>648_洋牡丹河内_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>9</v>
+      </c>
+      <c r="C50" t="str">
+        <v>651_大丽花 奶油桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F50" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
+      <c r="F51" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>656_大丽花 梅根_undefined_undefined_5stems</v>
+      </c>
+      <c r="F52" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>551_铁线莲_Glematis_undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" xml:space="preserve">
+      <c r="C54" t="str" xml:space="preserve">
+        <v xml:space="preserve">413_风铃花淡紫色_Canterbury Bells
+light purple_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>10</v>
+      </c>
+      <c r="C55" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F55" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
+      </c>
+      <c r="F56" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>46_拉丝橙_Spider orange_Gerbera L._20stems</v>
+      </c>
+      <c r="F57" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>630_吸色康乃馨天蓝_tinted tiffany blue_undefined_20stems</v>
+      </c>
+      <c r="F58" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>631_吸色康乃馨宝蓝_tinted blue_undefined_20stems</v>
+      </c>
+      <c r="F59" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" xml:space="preserve">
+      <c r="C60" t="str" xml:space="preserve">
+        <v xml:space="preserve">508_风铃花白色_Canterbury Bells 
+white_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" xml:space="preserve">
+      <c r="C61" t="str" xml:space="preserve">
+        <v xml:space="preserve">414_风铃花粉色_Canterbury Bells
+pink_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -842,7 +1011,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01515404010335321510147131014914101055101151110826151515151510415950</v>
+        <v>0151540401033532151014713101491410105510115111082615151515151041595010201555510101551055151051010100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-1.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-1.xlsx
@@ -950,6 +950,9 @@
         <v xml:space="preserve">414_风铃花粉色_Canterbury Bells
 pink_undefined_1bunch</v>
       </c>
+      <c r="F61" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1011,7 +1014,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151540401033532151014713101491410105510115111082615151515151041595010201555510101551055151051010100</v>
+        <v>01515404010335321510147131014914101055101151110826151515151510415950102015555101015510551510510101010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-1.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-1.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -954,9 +954,92 @@
         <v>10</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>1</v>
+      </c>
+      <c r="C62" t="str">
+        <v>478_绿芯向日葵_sunflower mini_undefined_1bunch</v>
+      </c>
+      <c r="F62" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>521_商陆_phytolacca acinosa _undefined_1bunch</v>
+      </c>
+      <c r="F63" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F64" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F65" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F66" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>224_折射_Reflex_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F67" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" xml:space="preserve">
+      <c r="C68" t="str" xml:space="preserve">
+        <v xml:space="preserve">404_小飞燕白色_ delphinium ballkleid
+white_undefined_1bunch</v>
+      </c>
+      <c r="F68" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" xml:space="preserve">
+      <c r="C69" t="str" xml:space="preserve">
+        <v xml:space="preserve">405_小飞燕浅蓝_ delphinium ballkleid
+dark blue_undefined_1bunch</v>
+      </c>
+      <c r="F69" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" xml:space="preserve">
+      <c r="C70" t="str" xml:space="preserve">
+        <v xml:space="preserve">497_小飞燕粉色_delphinium ballkleid
+pink_undefined_1bunch</v>
+      </c>
+      <c r="F70" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1014,7 +1097,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01515404010335321510147131014914101055101151110826151515151510415950102015555101015510551510510101010</v>
+        <v>0151540401033532151014713101491410105510115111082615151515151041595010201555510101551055151051010101010151016651010100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-1.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-1.xlsx
@@ -1036,6 +1036,9 @@
       <c r="A71" t="str">
         <v>2</v>
       </c>
+      <c r="C71" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-1.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-1.xlsx
@@ -1039,6 +1039,9 @@
       <c r="C71" t="str">
         <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F71" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1100,7 +1103,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151540401033532151014713101491410105510115111082615151515151041595010201555510101551055151051010101010151016651010100</v>
+        <v>0151540401033532151014713101491410105510115111082615151515151041595010201555510101551055151051010101010151016651010101</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-1.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-1.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1040,12 +1040,79 @@
         <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F71" t="str">
-        <v>1</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>224_折射_Reflex_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F72" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F73" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F74" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F75" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>3</v>
+      </c>
+      <c r="C76" t="str">
+        <v>753_蝴蝶洋牡丹黄_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F76" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="str">
+        <v>752_蝴蝶洋牡丹橙_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F77" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="str">
+        <v>480_蝴蝶洋牡丹红_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F78" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F79" t="str">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L79"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1103,7 +1170,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151540401033532151014713101491410105510115111082615151515151041595010201555510101551055151051010101010151016651010101</v>
+        <v>0151540401033532151014713101491410105510115111082615151515151041595010201555510101551055151051010101010151016651010101051510101051010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-1.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-1.xlsx
@@ -1172,6 +1172,9 @@
       <c r="G2" t="str">
         <v>0151540401033532151014713101491410105510115111082615151515151041595010201555510101551055151051010101010151016651010101051510101051010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
